--- a/Mermaid/Table/Gift.xlsx
+++ b/Mermaid/Table/Gift.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mermaid\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mermaid22\Mermaid\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="134">
   <si>
     <t>gift</t>
   </si>
@@ -768,15 +768,30 @@
     <t>일상</t>
   </si>
   <si>
-    <t>float</t>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
+    <t>int</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -899,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -966,6 +981,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1188,8 +1206,8 @@
   </sheetPr>
   <dimension ref="A1:AC939"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1243,8 +1261,8 @@
       <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>4</v>
+      <c r="E2" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>5</v>
@@ -1259,19 +1277,19 @@
         <v>8</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>4</v>
@@ -1486,7 +1504,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="13">
         <v>30</v>
@@ -1495,7 +1513,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="14">
         <v>0</v>
@@ -1509,14 +1527,14 @@
       </c>
       <c r="L6" s="18">
         <f t="shared" ref="L6:L94" si="1">K6*E6</f>
-        <v>1305</v>
+        <v>1740</v>
       </c>
       <c r="M6" s="17">
         <v>870</v>
       </c>
       <c r="N6" s="18">
         <f t="shared" ref="N6:N94" si="2">M6*E6</f>
-        <v>1305</v>
+        <v>1740</v>
       </c>
       <c r="O6" s="18">
         <f t="shared" ref="O6:O94" si="3">M6*(G6/F6)</f>
@@ -1524,11 +1542,11 @@
       </c>
       <c r="P6" s="19">
         <f t="shared" ref="P6:P94" si="4">H6*O6</f>
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="Q6" s="18">
         <f>SUM(P6:P100)</f>
-        <v>0</v>
+        <v>14078.666666666664</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1557,7 +1575,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="13">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F7" s="13">
         <v>30</v>
@@ -1566,28 +1584,28 @@
         <v>5</v>
       </c>
       <c r="H7" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="14">
         <v>0</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" si="0"/>
-        <v>20.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="K7" s="17">
         <v>1157</v>
       </c>
       <c r="L7" s="18">
         <f t="shared" si="1"/>
-        <v>775.19</v>
+        <v>1157</v>
       </c>
       <c r="M7" s="17">
         <v>1157</v>
       </c>
       <c r="N7" s="18">
         <f t="shared" si="2"/>
-        <v>775.19</v>
+        <v>1157</v>
       </c>
       <c r="O7" s="18">
         <f t="shared" si="3"/>
@@ -1595,7 +1613,7 @@
       </c>
       <c r="P7" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>385.66666666666663</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1625,7 +1643,7 @@
         <v>44</v>
       </c>
       <c r="E8" s="13">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F8" s="13">
         <v>30</v>
@@ -1634,28 +1652,28 @@
         <v>5</v>
       </c>
       <c r="H8" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="14">
         <v>0</v>
       </c>
       <c r="J8" s="15">
         <f t="shared" si="0"/>
-        <v>20.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="K8" s="17">
         <v>1157</v>
       </c>
       <c r="L8" s="18">
         <f t="shared" si="1"/>
-        <v>775.19</v>
+        <v>1157</v>
       </c>
       <c r="M8" s="17">
         <v>1157</v>
       </c>
       <c r="N8" s="18">
         <f t="shared" si="2"/>
-        <v>775.19</v>
+        <v>1157</v>
       </c>
       <c r="O8" s="18">
         <f t="shared" si="3"/>
@@ -1663,7 +1681,7 @@
       </c>
       <c r="P8" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>385.66666666666663</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1693,7 +1711,7 @@
         <v>46</v>
       </c>
       <c r="E9" s="13">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="F9" s="13">
         <v>60</v>
@@ -1702,28 +1720,28 @@
         <v>10</v>
       </c>
       <c r="H9" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="14">
         <v>0</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="0"/>
-        <v>110.4</v>
+        <v>110</v>
       </c>
       <c r="K9" s="17">
         <v>1587</v>
       </c>
       <c r="L9" s="18">
         <f t="shared" si="1"/>
-        <v>2920.08</v>
+        <v>3174</v>
       </c>
       <c r="M9" s="17">
         <v>1587</v>
       </c>
       <c r="N9" s="18">
         <f t="shared" si="2"/>
-        <v>2920.08</v>
+        <v>3174</v>
       </c>
       <c r="O9" s="18">
         <f t="shared" si="3"/>
@@ -1731,7 +1749,7 @@
       </c>
       <c r="P9" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>264.5</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1761,7 +1779,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="13">
-        <v>1.1599999999999999</v>
+        <v>2</v>
       </c>
       <c r="F10" s="13">
         <v>60</v>
@@ -1770,28 +1788,28 @@
         <v>10</v>
       </c>
       <c r="H10" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10" s="14">
         <v>0</v>
       </c>
       <c r="J10" s="15">
         <f t="shared" si="0"/>
-        <v>69.599999999999994</v>
+        <v>70</v>
       </c>
       <c r="K10" s="17">
         <v>1587</v>
       </c>
       <c r="L10" s="18">
         <f t="shared" si="1"/>
-        <v>1840.9199999999998</v>
+        <v>3174</v>
       </c>
       <c r="M10" s="17">
         <v>1587</v>
       </c>
       <c r="N10" s="18">
         <f t="shared" si="2"/>
-        <v>1840.9199999999998</v>
+        <v>3174</v>
       </c>
       <c r="O10" s="18">
         <f t="shared" si="3"/>
@@ -1799,7 +1817,7 @@
       </c>
       <c r="P10" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1322.5</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1829,7 +1847,7 @@
         <v>48</v>
       </c>
       <c r="E11" s="13">
-        <v>1.1599999999999999</v>
+        <v>2</v>
       </c>
       <c r="F11" s="13">
         <v>60</v>
@@ -1838,28 +1856,28 @@
         <v>10</v>
       </c>
       <c r="H11" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="14">
         <v>0</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="0"/>
-        <v>69.599999999999994</v>
+        <v>70</v>
       </c>
       <c r="K11" s="17">
         <v>1587</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="1"/>
-        <v>1840.9199999999998</v>
+        <v>3174</v>
       </c>
       <c r="M11" s="17">
         <v>1587</v>
       </c>
       <c r="N11" s="18">
         <f t="shared" si="2"/>
-        <v>1840.9199999999998</v>
+        <v>3174</v>
       </c>
       <c r="O11" s="18">
         <f t="shared" si="3"/>
@@ -1867,7 +1885,7 @@
       </c>
       <c r="P11" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1322.5</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -1897,7 +1915,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F12" s="13">
         <v>10</v>
@@ -1906,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="14">
         <v>0</v>
@@ -1920,14 +1938,14 @@
       </c>
       <c r="L12" s="18">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>842</v>
       </c>
       <c r="M12" s="17">
         <v>842</v>
       </c>
       <c r="N12" s="18">
         <f t="shared" si="2"/>
-        <v>421</v>
+        <v>842</v>
       </c>
       <c r="O12" s="18">
         <f t="shared" si="3"/>
@@ -1935,7 +1953,7 @@
       </c>
       <c r="P12" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -2101,7 +2119,7 @@
         <v>54</v>
       </c>
       <c r="E15" s="13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F15" s="13">
         <v>20</v>
@@ -2110,7 +2128,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="14">
         <v>0</v>
@@ -2124,14 +2142,14 @@
       </c>
       <c r="L15" s="18">
         <f t="shared" si="1"/>
-        <v>760.5</v>
+        <v>1014</v>
       </c>
       <c r="M15" s="17">
         <v>1014</v>
       </c>
       <c r="N15" s="18">
         <f t="shared" si="2"/>
-        <v>760.5</v>
+        <v>1014</v>
       </c>
       <c r="O15" s="18">
         <f t="shared" si="3"/>
@@ -2139,7 +2157,7 @@
       </c>
       <c r="P15" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>253.5</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -2169,7 +2187,7 @@
         <v>55</v>
       </c>
       <c r="E16" s="13">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F16" s="13">
         <v>20</v>
@@ -2178,7 +2196,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="14">
         <v>0</v>
@@ -2192,14 +2210,14 @@
       </c>
       <c r="L16" s="18">
         <f t="shared" si="1"/>
-        <v>253.5</v>
+        <v>1014</v>
       </c>
       <c r="M16" s="17">
         <v>1014</v>
       </c>
       <c r="N16" s="18">
         <f t="shared" si="2"/>
-        <v>253.5</v>
+        <v>1014</v>
       </c>
       <c r="O16" s="18">
         <f t="shared" si="3"/>
@@ -2207,7 +2225,7 @@
       </c>
       <c r="P16" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>760.5</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -2237,7 +2255,7 @@
         <v>48</v>
       </c>
       <c r="E17" s="13">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F17" s="13">
         <v>20</v>
@@ -2246,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="14">
         <v>0</v>
@@ -2260,14 +2278,14 @@
       </c>
       <c r="L17" s="18">
         <f t="shared" si="1"/>
-        <v>253.5</v>
+        <v>1014</v>
       </c>
       <c r="M17" s="17">
         <v>1014</v>
       </c>
       <c r="N17" s="18">
         <f t="shared" si="2"/>
-        <v>253.5</v>
+        <v>1014</v>
       </c>
       <c r="O17" s="18">
         <f t="shared" si="3"/>
@@ -2275,7 +2293,7 @@
       </c>
       <c r="P17" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>760.5</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -2305,7 +2323,7 @@
         <v>56</v>
       </c>
       <c r="E18" s="13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="13">
         <v>20</v>
@@ -2314,28 +2332,28 @@
         <v>5</v>
       </c>
       <c r="H18" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="14">
         <v>0</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K18" s="17">
         <v>1014</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" si="1"/>
-        <v>1521</v>
+        <v>2028</v>
       </c>
       <c r="M18" s="17">
         <v>1014</v>
       </c>
       <c r="N18" s="18">
         <f t="shared" si="2"/>
-        <v>1521</v>
+        <v>2028</v>
       </c>
       <c r="O18" s="18">
         <f t="shared" si="3"/>
@@ -2343,7 +2361,7 @@
       </c>
       <c r="P18" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>253.5</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -2373,7 +2391,7 @@
         <v>53</v>
       </c>
       <c r="E19" s="13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F19" s="13">
         <v>40</v>
@@ -2382,7 +2400,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="14">
         <v>0</v>
@@ -2396,14 +2414,14 @@
       </c>
       <c r="L19" s="18">
         <f t="shared" si="1"/>
-        <v>609.75</v>
+        <v>813</v>
       </c>
       <c r="M19" s="17">
         <v>813</v>
       </c>
       <c r="N19" s="18">
         <f t="shared" si="2"/>
-        <v>609.75</v>
+        <v>813</v>
       </c>
       <c r="O19" s="18">
         <f t="shared" si="3"/>
@@ -2411,7 +2429,7 @@
       </c>
       <c r="P19" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>203.25</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -2509,7 +2527,7 @@
         <v>48</v>
       </c>
       <c r="E21" s="13">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F21" s="13">
         <v>40</v>
@@ -2518,7 +2536,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" s="14">
         <v>0</v>
@@ -2532,14 +2550,14 @@
       </c>
       <c r="L21" s="18">
         <f t="shared" si="1"/>
-        <v>203.25</v>
+        <v>813</v>
       </c>
       <c r="M21" s="17">
         <v>813</v>
       </c>
       <c r="N21" s="18">
         <f t="shared" si="2"/>
-        <v>203.25</v>
+        <v>813</v>
       </c>
       <c r="O21" s="18">
         <f t="shared" si="3"/>
@@ -2547,7 +2565,7 @@
       </c>
       <c r="P21" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>609.75</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -2645,7 +2663,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="13">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F23" s="13">
         <v>20</v>
@@ -2654,7 +2672,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="14">
         <v>0</v>
@@ -2668,14 +2686,14 @@
       </c>
       <c r="L23" s="18">
         <f t="shared" si="1"/>
-        <v>282</v>
+        <v>1128</v>
       </c>
       <c r="M23" s="17">
         <v>1128</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="2"/>
-        <v>282</v>
+        <v>1128</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" si="3"/>
@@ -2683,7 +2701,7 @@
       </c>
       <c r="P23" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -2849,7 +2867,7 @@
         <v>65</v>
       </c>
       <c r="E26" s="13">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F26" s="13">
         <v>40</v>
@@ -2858,7 +2876,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26" s="14">
         <v>0</v>
@@ -2872,14 +2890,14 @@
       </c>
       <c r="L26" s="18">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>1100</v>
       </c>
       <c r="M26" s="17">
         <v>1100</v>
       </c>
       <c r="N26" s="18">
         <f t="shared" si="2"/>
-        <v>275</v>
+        <v>1100</v>
       </c>
       <c r="O26" s="18">
         <f t="shared" si="3"/>
@@ -2887,7 +2905,7 @@
       </c>
       <c r="P26" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -2917,7 +2935,7 @@
         <v>67</v>
       </c>
       <c r="E27" s="13">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F27" s="13">
         <v>20</v>
@@ -2926,7 +2944,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" s="14">
         <v>0</v>
@@ -2940,14 +2958,14 @@
       </c>
       <c r="L27" s="18">
         <f t="shared" si="1"/>
-        <v>353.75</v>
+        <v>1415</v>
       </c>
       <c r="M27" s="17">
         <v>1415</v>
       </c>
       <c r="N27" s="18">
         <f t="shared" si="2"/>
-        <v>353.75</v>
+        <v>1415</v>
       </c>
       <c r="O27" s="18">
         <f t="shared" si="3"/>
@@ -2955,7 +2973,7 @@
       </c>
       <c r="P27" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1061.25</v>
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
@@ -2985,7 +3003,7 @@
         <v>68</v>
       </c>
       <c r="E28" s="13">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F28" s="13">
         <v>20</v>
@@ -2994,7 +3012,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" s="14">
         <v>0</v>
@@ -3008,14 +3026,14 @@
       </c>
       <c r="L28" s="18">
         <f t="shared" si="1"/>
-        <v>353.75</v>
+        <v>1415</v>
       </c>
       <c r="M28" s="17">
         <v>1415</v>
       </c>
       <c r="N28" s="18">
         <f t="shared" si="2"/>
-        <v>353.75</v>
+        <v>1415</v>
       </c>
       <c r="O28" s="18">
         <f t="shared" si="3"/>
@@ -3023,7 +3041,7 @@
       </c>
       <c r="P28" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1061.25</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
@@ -3053,7 +3071,7 @@
         <v>70</v>
       </c>
       <c r="E29" s="13">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F29" s="13">
         <v>6</v>
@@ -3062,28 +3080,28 @@
         <v>1</v>
       </c>
       <c r="H29" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29" s="14">
         <v>0</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K29" s="17">
         <v>4361</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" si="1"/>
-        <v>1090.25</v>
+        <v>4361</v>
       </c>
       <c r="M29" s="17">
         <v>4361</v>
       </c>
       <c r="N29" s="18">
         <f t="shared" si="2"/>
-        <v>1090.25</v>
+        <v>4361</v>
       </c>
       <c r="O29" s="18">
         <f t="shared" si="3"/>
@@ -3091,7 +3109,7 @@
       </c>
       <c r="P29" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2907.333333333333</v>
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
